--- a/clases_chaini/230517_segundochaini/archivos/www/metadatos_01.xlsx
+++ b/clases_chaini/230517_segundochaini/archivos/www/metadatos_01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juvenalcampos/Desktop/DataCrunchersMX/01_Curso Tableros Shiny/00_03_Material Curso/02 Mi primera aplicación shiny/archivos/www/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juvenalcampos/Desktop/DataCrunchersMX/01_Curso Tableros Shiny/00_03_Material Curso/02 Mi primera aplicación shiny/correccion/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D276399-049F-F44E-B474-46BD55B7DFCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A9FD670-EA71-2F4A-884B-565D957A2ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="1340" windowWidth="27240" windowHeight="14980" xr2:uid="{F4BA7237-FB48-464D-A6BE-B9B237719198}"/>
+    <workbookView xWindow="780" yWindow="1500" windowWidth="27240" windowHeight="14820" xr2:uid="{F850907E-8241-484A-9A42-0061A694F520}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="71">
   <si>
     <t>no</t>
   </si>
@@ -95,52 +95,55 @@
     <t>fuentes</t>
   </si>
   <si>
-    <t>M.1.1</t>
-  </si>
-  <si>
-    <t>Población total a nivel municipal</t>
-  </si>
-  <si>
-    <t>1. Demográfico y social</t>
+    <t>M.1.1.1.9</t>
+  </si>
+  <si>
+    <t>Viviendas con acceso a computadora</t>
+  </si>
+  <si>
+    <t>1.1.1. Condiciones de las viviendas</t>
   </si>
   <si>
     <t>Eje 2. Bienestar</t>
   </si>
   <si>
-    <t>Personas</t>
-  </si>
-  <si>
-    <t>Es la cantidad de personas que habitan en un municipio dado._x000D_
-Nota APP: los datos para el 2020 están mal, revisarlos. Tijuana 02004 debería tener más de 1 millón de hab, y así varios.</t>
-  </si>
-  <si>
-    <t>Censos poblacionales 2000 y 2010, Conteo 2005, Encuesta intercensal 2015._x000D_
-Censos y conteo: https://www.inegi.org.mx/programas/ccpv/2020/default.html; Encuesta intercensal: https://www.inegi.org.mx/programas/intercensal/2015/ (Tabulado de Población)_x000D_
+    <t>Porcentaje</t>
+  </si>
+  <si>
+    <t>Porcentaje de viviendas particulares habitadas que reportaron tener computadora, tablet o laptop</t>
+  </si>
+  <si>
+    <t>Censos poblacionales 2000 y 2010, Conteo 2005, Encuesta intercensal 2015.
+Censos y conteo: https://www.inegi.org.mx/programas/ccpv/2020/default.html; Encuesta intercensal: https://www.inegi.org.mx/programas/intercensal/2015/ (Tabulado de Viviendas)
 Instituto Nacional de Estadística y Geografía (INEGI)</t>
   </si>
   <si>
-    <t>2000-2015</t>
+    <t>2000-2020</t>
   </si>
   <si>
     <t>Quinquenal</t>
   </si>
   <si>
-    <t>Municipal, Nacional</t>
-  </si>
-  <si>
-    <t>No aplica</t>
+    <t>Para el año 2000 no hay información para los municipios de Oaxaca, sólo hay información a nivel de distrito.</t>
+  </si>
+  <si>
+    <t>Municipal, Estatal</t>
+  </si>
+  <si>
+    <t>Más es mejor</t>
+  </si>
+  <si>
+    <t>municipal_algoritmos/151.png</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>Instituto Nacional de Estadística y Geografía (INEGI). Censo Poblacional, 2020. https://www.inegi.org.mx/programas/ccpv/2020/#Tabulados</t>
+    <t>Instituto Nacional de Estadística y Geografía (INEGI). Censo de población y vivienda, 2020. https://www.inegi.org.mx/datos/#Programas
+Instituto Nacional de Estadística y Geografía (INEGI). Encuesta Intercensal, 2015. None</t>
   </si>
   <si>
     <t>Porcentaje de viviendas con automóvil</t>
-  </si>
-  <si>
-    <t>Porcentaje</t>
   </si>
   <si>
     <t>Porcentaje de viviendas que reportaron tener automovil o camioneta</t>
@@ -154,199 +157,107 @@
     <t>Municipal</t>
   </si>
   <si>
-    <t>M.1.3.3.23</t>
-  </si>
-  <si>
-    <t>Grado promedio de escolaridad de la población de 15 años y más</t>
-  </si>
-  <si>
-    <t>1.3.3. Características educativas de la población</t>
-  </si>
-  <si>
-    <t>Años de escolaridad</t>
-  </si>
-  <si>
-    <t>Años de escolaridad promedio de la población de 15 años y más en un municipio.</t>
-  </si>
-  <si>
-    <t>Censo poblacional 2010, Encuesta intercensal 2015.
-Censos y conteo: https://www.inegi.org.mx/programas/ccpv/2020/default.html; Encuesta intercensal: https://www.inegi.org.mx/programas/intercensal/2015/ (Tabulado de Viviendas)
-Instituto Nacional de Estadística y Geografía (INEGI)</t>
-  </si>
-  <si>
-    <t>2010-2020</t>
+    <t>M.2.1.1.110</t>
+  </si>
+  <si>
+    <t>Aportación Municipal al PIB en Precios Constantes de 2013 Estatal</t>
+  </si>
+  <si>
+    <t>2.1.1. Impacto y uso</t>
+  </si>
+  <si>
+    <t>Eje 3. Desarrollo económico</t>
+  </si>
+  <si>
+    <t>Pesos</t>
+  </si>
+  <si>
+    <t>Qué cantidad proporcionan los municipios a su PIB Estatal.</t>
+  </si>
+  <si>
+    <t>2000-2015</t>
+  </si>
+  <si>
+    <t>Irregular</t>
+  </si>
+  <si>
+    <t>Ya se encuentra para todos los municipios de la entidad federativa. No se pudo obtener el cálculo para 2005 pues no existen datos de población municipal. No existen datos del 2000 pues sería imposible extraer la minería petrolera, se empezó a tener registro desde 2003, este valor no se tomó en consideración. Todavía no están publicados para 2020. Es la suma del PIB Primario por municipio, PIB secundario sin minería petrolera por municipio y PIB terciario por municipio.</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>Instituto Nacional de Estadística y Geografía (INEGI). Encuesta Intercensal, 2015. https://www.inegi.org.mx/programas/intercensal/2015/default.html#Tabulados
+Instituto Nacional de Estadística y Geografía (INEGI). Censo de población y vivienda, 2010. https://www.inegi.org.mx/programas/ccpv/2010/default.html#Tabulados
+Instituto Nacional de Estadística y Geografía (INEGI). Censo Económico 2014, 2014. https://www.inegi.org.mx/app/saic/
+Instituto Nacional de Estadística y Geografía (INEGI). Sistema de Cuentas Nacionales, 2020. https://www.inegi.org.mx/programas/pibent/2013/default.html#Tabulados</t>
+  </si>
+  <si>
+    <t>M.2.13.1.127</t>
+  </si>
+  <si>
+    <t>Participación en la producción agrícola estatal</t>
+  </si>
+  <si>
+    <t>2.13.1. Sector agrícola</t>
+  </si>
+  <si>
+    <t>Es el porcentaje que representa el total del valor de la producción agrícola del municipio en el total del estado</t>
+  </si>
+  <si>
+    <t>2003-2019</t>
+  </si>
+  <si>
+    <t>Anual</t>
   </si>
   <si>
     <t>Nayarit</t>
   </si>
   <si>
-    <t>Más es mejor</t>
-  </si>
-  <si>
-    <t>Instituto Nacional de Estadística y Geografía (INEGI). Censo de población y vivienda, 2020. https://www.inegi.org.mx/programas/ccpv/2020/default.html#Microdatos</t>
-  </si>
-  <si>
-    <t>2.3. Contabilidad nacional y aspectos macroeconómicos</t>
-  </si>
-  <si>
-    <t>Eje 3. Desarrollo económico</t>
+    <t>Secretaría de Agricultura y Desarrollo Rural (SADER). Sistema de Información Agroalimentaria y Pesquera. http://infosiap.siap.gob.mx/gobmx/datosAbiertos.php</t>
+  </si>
+  <si>
+    <t>M.1.1.1.161</t>
+  </si>
+  <si>
+    <t>Viviendas con acceso a internet</t>
+  </si>
+  <si>
+    <t>Porcentaje de viviendas particulares habitadas que tienen conexión a internet</t>
+  </si>
+  <si>
+    <t>2015</t>
   </si>
   <si>
     <t>Único</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>INEGI. Censo de Población y Vivienda</t>
-  </si>
-  <si>
-    <t>M.1.3.196</t>
-  </si>
-  <si>
-    <t>Número de escuelas por municipio</t>
-  </si>
-  <si>
-    <t>1.3. Educación</t>
-  </si>
-  <si>
-    <t>Número de Unidades Económicas dedicadas a la educación básica y superior no-técnica.</t>
-  </si>
-  <si>
-    <t>Es el número de Unidades Económicas por municipio, registradas en el DENUE, que entran en una de las siguientes categorías: _x000D_
-_x000D_
-"Escuelas de educación primaria del sector privado",_x000D_
-"Escuelas de educación primaria del sector público",_x000D_
-_x000D_
-"Escuelas de educación secundaria general del sector público",_x000D_
-"Escuelas de educación secundaria técnica del sector público",_x000D_
-"Escuelas de educación secundaria técnica del sector privado",_x000D_
-"Escuelas de educación secundaria general del sector privado",_x000D_
-_x000D_
-"Escuelas del sector público que combinan diversos niveles de educación",_x000D_
-"Escuelas del sector privado que combinan diversos niveles de educación",_x000D_
-_x000D_
-"Escuelas de educación media superior del sector público",_x000D_
-"Escuelas de educación media superior del sector privado",_x000D_
-_x000D_
-"Escuelas de educación superior del sector público",_x000D_
-"Escuelas de educación superior del sector privado"</t>
-  </si>
-  <si>
-    <t>2015-2021</t>
-  </si>
-  <si>
-    <t>Sexenal</t>
-  </si>
-  <si>
-    <t>Las observaciones pudieran derivarse de que quizá el DENUE no sea la mejor fuente de información para esto. Como alternativa, se propone revisar los datos del INEE (https://historico.mejoredu.gob.mx/bases-de-datos-inee-2019/) para revisar una segunda opinión.</t>
-  </si>
-  <si>
-    <t>Instituto Nacional de Estadística y Geografía (INEGI). Directorio Estadístico Nacional de Unidades Económicas, Mayo 2021. https://www.inegi.org.mx/app/descarga/?ti=6</t>
-  </si>
-  <si>
-    <t>M.4.2.200</t>
-  </si>
-  <si>
-    <t>Número de Feminicidos reportados por el SESNSP</t>
-  </si>
-  <si>
-    <t>4.2. Seguridad pública y justicia</t>
-  </si>
-  <si>
-    <t>Eje 1. Justicia y estado de derecho</t>
-  </si>
-  <si>
-    <t>Feminicidios</t>
-  </si>
-  <si>
-    <t>Es el número de feminicidios reportados bajo la nueva metodología del Secretariado Ejecutivo del Sistema Nacional de Seguridad Pública de 2015 a 2021</t>
-  </si>
-  <si>
-    <t>2015-2020</t>
-  </si>
-  <si>
-    <t>Anual</t>
-  </si>
-  <si>
-    <t>Datos calculados bajo los criterios de reporte del Secretariado Ejecutivo del Sistema Nacional de Seguridad Pública. Se adjunta como ponderador la proyección de población femenina de CONAPO, para facilitar la realización de comparativas y análisis.</t>
+    <t>Disponible a partir de 2010</t>
+  </si>
+  <si>
+    <t>Instituto Nacional de Estadística y Geografía (INEGI). Encuesta Intercensal, 2015. https://www.inegi.org.mx/programas/intercensal/2015/default.html#Tabulados
+Instituto Nacional de Estadística y Geografía (INEGI). Censo de población y vivienda, 2020. https://www.inegi.org.mx/programas/ccpv/2020/#Tabulados</t>
+  </si>
+  <si>
+    <t>M.1.1.1.185</t>
+  </si>
+  <si>
+    <t>Porcentaje de viviendas con techo de material endeble</t>
+  </si>
+  <si>
+    <t>Porcentaje de viviendas con techo de material endeble (esto es, Material de desecho o lámina de cartón; Lámina metálica, lámina de asbesto, lámina de fibrocemento, palma o paja, madera o tejamanil; y Teja o terrado con viguería)</t>
+  </si>
+  <si>
+    <t>Se sumaron los tres tipos de techos endebles para calcular el indicador.</t>
+  </si>
+  <si>
+    <t>Municipal, Nacional</t>
   </si>
   <si>
     <t>Menos es mejor</t>
   </si>
   <si>
-    <t>Secretariado Ejecutivo del Sistema Nacional de Seguridad Pública. Reporte de Incidencia Delictiva, 2020. https://www.gob.mx/sesnsp/acciones-y-programas/datos-abiertos-de-incidencia-delictiva</t>
-  </si>
-  <si>
-    <t>M.1.4.3.202</t>
-  </si>
-  <si>
-    <t>Razón de mortalidad materna</t>
-  </si>
-  <si>
-    <t>1.4.3. Mortalidad</t>
-  </si>
-  <si>
-    <t>muertes maternas por cada 100 000 nacidos vivos</t>
-  </si>
-  <si>
-    <t>La razón de mortalidad materna se refiere al número de fallecimientos femeninos ocurridos cuando una mujer da a luz, está embarazada o en postparto. Tal razón se encuentra dados el número de muertes maternas en cierto período de tiempo (normalmente anual) por cada 100,000 nacidos vivos.</t>
-  </si>
-  <si>
-    <t>2002-2019</t>
-  </si>
-  <si>
-    <t>Municipal, Estatal</t>
-  </si>
-  <si>
-    <t>Aguascalientes</t>
-  </si>
-  <si>
-    <t>municipal_algoritmos/Captura_de_Pantalla_2021-06-28_a_las_20.54.25.png</t>
-  </si>
-  <si>
-    <t>Instituto Nacional de Estadística y Geografía (INEGI). Conjunto de datos: Mortalidad general. https://www.inegi.org.mx/sistemas/olap/proyectos/bd/continuas/mortalidad/mortalidadgeneral.asp?s=est&amp;c=11144&amp;proy=mortgral_mg
-Instituto Nacional de Estadística y Geografía (INEGI). Conjunto de datos: Nacimientos. https://www.inegi.org.mx/sistemas/olap/proyectos/bd/continuas/natalidad/nacimientos.asp?s=est&amp;c=23699&amp;proy=nat_nac</t>
-  </si>
-  <si>
-    <t>M.2.3.210</t>
-  </si>
-  <si>
-    <t>Ingresos de remesas per cápita a nivel municipal</t>
-  </si>
-  <si>
-    <t>millones de dólares por personas</t>
-  </si>
-  <si>
-    <t>El indicador de remesas per capital a nivel municipal representa el dinero enviado por aquellas personas que radican en un país distinto a su país de origen desde una perspectiva municipal.</t>
-  </si>
-  <si>
-    <t>2020</t>
-  </si>
-  <si>
-    <t>municipal_algoritmos/Captura_de_Pantalla_2021-08-01_a_las_12.28.12.png</t>
-  </si>
-  <si>
-    <t>Instituto Nacional de Estadística y Geografía (INEGI). Censo de población y vivienda, 1900-2020. https://www.inegi.org.mx/sistemas/Olap/Proyectos/bd/censos/cpv2020/pt.asp
-Banco de México (Banxico). Balanza de pagos, 2013-2020. https://www.banxico.org.mx/SieInternet/consultarDirectorioInternetAction.do?accion=consultarCuadro&amp;idCuadro=CE166&amp;locale=es</t>
-  </si>
-  <si>
-    <t>M.1.212</t>
-  </si>
-  <si>
-    <t>Porcentaje de población que se traslada en menos de 30min</t>
-  </si>
-  <si>
-    <t>El porcentaje de la población que llega a su lugar de trabajo o de estudio en 30min o menos.</t>
-  </si>
-  <si>
-    <t>La información en la base de datos del INEGI está en porcentajes para la población en edad escolar y en edad laboral. Primero debe convertirse el porcentaje a cantidad de personas y después realizar la suma de ambas poblaciones. Después, sumar la cantidad de personas que no se trasladan y las que no especificaron para restarlas del total de población. Finalmente, sacar los porcentajes.</t>
-  </si>
-  <si>
-    <t>Tamaulipas</t>
-  </si>
-  <si>
-    <t>Instituto Nacional de Estadística y Geografía (INEGI). Censo de población y vivienda, 2020. https://www.inegi.org.mx/programas/ccpv/2020/#Tabulados</t>
+    <t>Instituto Nacional de Estadística y Geografía (INEGI). Encuesta Intercensal, 2015. https://www.inegi.org.mx/programas/intercensal/2015/default.html#Tabulados</t>
   </si>
 </sst>
 </file>
@@ -356,7 +267,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -368,13 +279,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -415,12 +319,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -735,11 +638,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63A7D637-8193-CE4B-97A6-D55B97200A02}">
-  <dimension ref="A1:S9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35ADF236-9C66-4943-B778-0834F3A78376}">
+  <dimension ref="A1:S7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -805,12 +708,12 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" t="s">
         <v>20</v>
       </c>
       <c r="D2" t="s">
@@ -834,340 +737,240 @@
       <c r="J2" t="s">
         <v>27</v>
       </c>
+      <c r="K2" t="s">
+        <v>28</v>
+      </c>
       <c r="L2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M2">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="O2" t="s">
-        <v>45</v>
+        <v>30</v>
+      </c>
+      <c r="P2" t="s">
+        <v>31</v>
       </c>
       <c r="Q2" t="s">
-        <v>30</v>
+        <v>32</v>
+      </c>
+      <c r="R2" s="2">
+        <v>45992</v>
       </c>
       <c r="S2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>10</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>32</v>
+      <c r="C3" t="s">
+        <v>34</v>
       </c>
       <c r="F3" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="G3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L3" t="s">
-        <v>36</v>
-      </c>
-      <c r="O3" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>30</v>
-      </c>
-      <c r="S3" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4">
+        <v>110</v>
+      </c>
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L4" t="s">
+        <v>37</v>
+      </c>
+      <c r="O4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>47</v>
+      </c>
+      <c r="S4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>127</v>
+      </c>
+      <c r="B5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" t="s">
         <v>23</v>
       </c>
-      <c r="B4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I4" t="s">
-        <v>43</v>
-      </c>
-      <c r="J4" t="s">
-        <v>27</v>
-      </c>
-      <c r="L4" t="s">
-        <v>28</v>
-      </c>
-      <c r="N4" t="s">
-        <v>44</v>
-      </c>
-      <c r="O4" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q4" t="s">
+      <c r="G5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J5" t="s">
+        <v>54</v>
+      </c>
+      <c r="L5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M5">
+        <v>8</v>
+      </c>
+      <c r="N5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O5" t="s">
         <v>30</v>
       </c>
-      <c r="S4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>196</v>
-      </c>
-      <c r="B5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" t="s">
-        <v>55</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="Q5" t="s">
+        <v>47</v>
+      </c>
+      <c r="S5" t="s">
         <v>56</v>
-      </c>
-      <c r="I5" t="s">
-        <v>57</v>
-      </c>
-      <c r="J5" t="s">
-        <v>58</v>
-      </c>
-      <c r="K5" t="s">
-        <v>59</v>
-      </c>
-      <c r="L5" t="s">
-        <v>36</v>
-      </c>
-      <c r="M5">
-        <v>4</v>
-      </c>
-      <c r="O5" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>50</v>
-      </c>
-      <c r="R5" s="3">
-        <v>45091</v>
-      </c>
-      <c r="S5" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>200</v>
+        <v>161</v>
       </c>
       <c r="B6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" t="s">
+        <v>59</v>
+      </c>
+      <c r="I6" t="s">
+        <v>60</v>
+      </c>
+      <c r="J6" t="s">
         <v>61</v>
       </c>
-      <c r="C6" t="s">
+      <c r="K6" t="s">
         <v>62</v>
       </c>
-      <c r="D6" t="s">
+      <c r="L6" t="s">
+        <v>29</v>
+      </c>
+      <c r="M6">
+        <v>9</v>
+      </c>
+      <c r="N6" t="s">
+        <v>55</v>
+      </c>
+      <c r="O6" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>32</v>
+      </c>
+      <c r="R6" s="2">
+        <v>45992</v>
+      </c>
+      <c r="S6" t="s">
         <v>63</v>
-      </c>
-      <c r="E6" t="s">
-        <v>64</v>
-      </c>
-      <c r="F6" t="s">
-        <v>65</v>
-      </c>
-      <c r="G6" t="s">
-        <v>66</v>
-      </c>
-      <c r="I6" t="s">
-        <v>67</v>
-      </c>
-      <c r="J6" t="s">
-        <v>68</v>
-      </c>
-      <c r="K6" t="s">
-        <v>69</v>
-      </c>
-      <c r="L6" t="s">
-        <v>36</v>
-      </c>
-      <c r="M6">
-        <v>5</v>
-      </c>
-      <c r="O6" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>30</v>
-      </c>
-      <c r="R6" s="3">
-        <v>44593</v>
-      </c>
-      <c r="S6" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="B7" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C7" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D7" t="s">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="E7" t="s">
         <v>22</v>
       </c>
       <c r="F7" t="s">
-        <v>75</v>
+        <v>23</v>
       </c>
       <c r="G7" t="s">
-        <v>76</v>
-      </c>
-      <c r="I7" t="s">
-        <v>77</v>
-      </c>
-      <c r="J7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L7" t="s">
         <v>68</v>
-      </c>
-      <c r="L7" t="s">
-        <v>78</v>
       </c>
       <c r="M7">
         <v>3</v>
       </c>
       <c r="N7" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="O7" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>47</v>
+      </c>
+      <c r="R7" s="2">
+        <v>44167</v>
+      </c>
+      <c r="S7" t="s">
         <v>70</v>
-      </c>
-      <c r="P7" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>50</v>
-      </c>
-      <c r="R7" s="3">
-        <v>44400</v>
-      </c>
-      <c r="S7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>210</v>
-      </c>
-      <c r="B8" t="s">
-        <v>82</v>
-      </c>
-      <c r="C8" t="s">
-        <v>83</v>
-      </c>
-      <c r="D8" t="s">
-        <v>47</v>
-      </c>
-      <c r="E8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" t="s">
-        <v>84</v>
-      </c>
-      <c r="G8" t="s">
-        <v>85</v>
-      </c>
-      <c r="I8" t="s">
-        <v>86</v>
-      </c>
-      <c r="J8" t="s">
-        <v>49</v>
-      </c>
-      <c r="L8" t="s">
-        <v>78</v>
-      </c>
-      <c r="M8">
-        <v>8</v>
-      </c>
-      <c r="O8" t="s">
-        <v>45</v>
-      </c>
-      <c r="P8" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>50</v>
-      </c>
-      <c r="R8" s="3">
-        <v>44522</v>
-      </c>
-      <c r="S8" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>212</v>
-      </c>
-      <c r="B9" t="s">
-        <v>89</v>
-      </c>
-      <c r="C9" t="s">
-        <v>90</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" t="s">
-        <v>33</v>
-      </c>
-      <c r="G9" t="s">
-        <v>91</v>
-      </c>
-      <c r="I9" t="s">
-        <v>86</v>
-      </c>
-      <c r="J9" t="s">
-        <v>49</v>
-      </c>
-      <c r="K9" t="s">
-        <v>92</v>
-      </c>
-      <c r="L9" t="s">
-        <v>36</v>
-      </c>
-      <c r="N9" t="s">
-        <v>93</v>
-      </c>
-      <c r="O9" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>50</v>
-      </c>
-      <c r="S9" t="s">
-        <v>94</v>
       </c>
     </row>
   </sheetData>
